--- a/Code/Results/Cases/Case_8_56/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_8_56/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.21660369740914</v>
+        <v>20.24450863270158</v>
       </c>
       <c r="C2">
-        <v>19.27852543028204</v>
+        <v>20.70023678048334</v>
       </c>
       <c r="D2">
-        <v>5.287658117387303</v>
+        <v>4.336938339819218</v>
       </c>
       <c r="E2">
-        <v>12.71895905100852</v>
+        <v>12.72069473950667</v>
       </c>
       <c r="F2">
-        <v>40.15467877390774</v>
+        <v>33.8141903044147</v>
       </c>
       <c r="G2">
-        <v>2.083895357282722</v>
+        <v>1.508455364412642</v>
       </c>
       <c r="H2">
-        <v>1.89492043426217</v>
+        <v>1.971453187647629</v>
       </c>
       <c r="I2">
-        <v>2.786874664298435</v>
+        <v>2.92076005029939</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>26.30774916333969</v>
+        <v>21.08828930482095</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>17.5379802421535</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>14.04353942577527</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>18.21020319576323</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>18.42766478891357</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.85655440055395</v>
+        <v>18.93399282734324</v>
       </c>
       <c r="C3">
-        <v>17.93858001759315</v>
+        <v>19.27639771371296</v>
       </c>
       <c r="D3">
-        <v>5.20331314573466</v>
+        <v>4.296615425758989</v>
       </c>
       <c r="E3">
-        <v>11.90344909510926</v>
+        <v>12.04848951178627</v>
       </c>
       <c r="F3">
-        <v>38.05746842669512</v>
+        <v>32.24791741303546</v>
       </c>
       <c r="G3">
-        <v>2.091808126949717</v>
+        <v>2.407919641690027</v>
       </c>
       <c r="H3">
-        <v>1.597407860522872</v>
+        <v>1.722645536929676</v>
       </c>
       <c r="I3">
-        <v>2.500517978736077</v>
+        <v>2.715028617884092</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>25.280552435238</v>
+        <v>20.53032028689361</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>17.3236923858442</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>13.38376364309959</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>17.09827169669693</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>17.30564612232951</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.97266800674175</v>
+        <v>18.08130788122943</v>
       </c>
       <c r="C4">
-        <v>17.07505779924574</v>
+        <v>18.35505174828801</v>
       </c>
       <c r="D4">
-        <v>5.148256424932931</v>
+        <v>4.269024207332701</v>
       </c>
       <c r="E4">
-        <v>11.37891775791988</v>
+        <v>11.61644411347574</v>
       </c>
       <c r="F4">
-        <v>36.71648656963721</v>
+        <v>31.24299422057674</v>
       </c>
       <c r="G4">
-        <v>2.096796644462334</v>
+        <v>2.97666384705906</v>
       </c>
       <c r="H4">
-        <v>1.715468652756704</v>
+        <v>1.56499033359217</v>
       </c>
       <c r="I4">
-        <v>2.629206485554762</v>
+        <v>2.585747401629581</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>24.62746123590577</v>
+        <v>20.17366983149287</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>17.17875927255772</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>12.97829777372936</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>16.38149477311584</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>16.58086295487035</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.59940517329105</v>
+        <v>17.72114574049727</v>
       </c>
       <c r="C5">
-        <v>16.72139747305942</v>
+        <v>17.97483221337303</v>
       </c>
       <c r="D5">
-        <v>5.119565705179721</v>
+        <v>4.254282190935966</v>
       </c>
       <c r="E5">
-        <v>11.15711612008332</v>
+        <v>11.43406235997647</v>
       </c>
       <c r="F5">
-        <v>36.11943331212271</v>
+        <v>30.79255105295469</v>
       </c>
       <c r="G5">
-        <v>2.098879790154149</v>
+        <v>3.214372996622096</v>
       </c>
       <c r="H5">
-        <v>1.795789872113853</v>
+        <v>1.623415881206853</v>
       </c>
       <c r="I5">
-        <v>2.710763856440717</v>
+        <v>2.533092141873702</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>24.32603776790321</v>
+        <v>20.00202747966565</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>17.09865207438331</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>12.79646067738225</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>16.082015783467</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>16.27747319733218</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.53581349155916</v>
+        <v>17.65990284541705</v>
       </c>
       <c r="C6">
-        <v>16.67255687299597</v>
+        <v>17.91971287778548</v>
       </c>
       <c r="D6">
-        <v>5.108120991736721</v>
+        <v>4.248410198200935</v>
       </c>
       <c r="E6">
-        <v>11.11746956878796</v>
+        <v>11.40165826283446</v>
       </c>
       <c r="F6">
-        <v>35.97350413753976</v>
+        <v>30.68001560570596</v>
       </c>
       <c r="G6">
-        <v>2.099247605647271</v>
+        <v>3.256162486673327</v>
       </c>
       <c r="H6">
-        <v>1.809690532971831</v>
+        <v>1.635008768040069</v>
       </c>
       <c r="I6">
-        <v>2.728838439725926</v>
+        <v>2.525531115353239</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>24.2391232627375</v>
+        <v>19.94539915141111</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>17.06358386863814</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>12.74548064430804</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>16.03313491147023</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>16.22766360033009</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.96536024086714</v>
+        <v>18.07467701601152</v>
       </c>
       <c r="C7">
-        <v>17.09828033688185</v>
+        <v>18.31612527535402</v>
       </c>
       <c r="D7">
-        <v>5.129825697171171</v>
+        <v>4.243961249008528</v>
       </c>
       <c r="E7">
-        <v>11.36937591617046</v>
+        <v>11.61059194005333</v>
       </c>
       <c r="F7">
-        <v>36.58503042321883</v>
+        <v>30.95479263908566</v>
       </c>
       <c r="G7">
-        <v>2.09687829047346</v>
+        <v>3.059443517660578</v>
       </c>
       <c r="H7">
-        <v>1.7178365499485</v>
+        <v>1.561185797673295</v>
       </c>
       <c r="I7">
-        <v>2.642227912537527</v>
+        <v>2.584768422857722</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>24.52482574387908</v>
+        <v>19.98238051119353</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>17.03267207276742</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>12.83377648000132</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>16.3811043493744</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>16.5716662071192</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.75478197115321</v>
+        <v>19.80032211827804</v>
       </c>
       <c r="C8">
-        <v>18.85873221168759</v>
+        <v>20.07178731170026</v>
       </c>
       <c r="D8">
-        <v>5.235774247444216</v>
+        <v>4.264128432737657</v>
       </c>
       <c r="E8">
-        <v>12.43445717831944</v>
+        <v>12.49168855883435</v>
       </c>
       <c r="F8">
-        <v>39.28931283629243</v>
+        <v>32.58931267988775</v>
       </c>
       <c r="G8">
-        <v>2.086666684938367</v>
+        <v>2.363992646149021</v>
       </c>
       <c r="H8">
-        <v>1.791796055233371</v>
+        <v>1.878948517953291</v>
       </c>
       <c r="I8">
-        <v>2.6900170343935</v>
+        <v>2.843244444689589</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>25.83353925120042</v>
+        <v>20.44188604723073</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>17.12397822040252</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>13.46519690596651</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>17.83828512493902</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>18.02666071767375</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.88479410095763</v>
+        <v>22.80766779377243</v>
       </c>
       <c r="C9">
-        <v>21.9487645836041</v>
+        <v>23.31615015651581</v>
       </c>
       <c r="D9">
-        <v>5.449007161148097</v>
+        <v>4.350685513510193</v>
       </c>
       <c r="E9">
-        <v>14.34828159929878</v>
+        <v>14.06743011189612</v>
       </c>
       <c r="F9">
-        <v>44.35788204445522</v>
+        <v>36.27730684783143</v>
       </c>
       <c r="G9">
-        <v>2.067516076763074</v>
+        <v>2.703743130139815</v>
       </c>
       <c r="H9">
-        <v>2.508172712082744</v>
+        <v>2.473399117851889</v>
       </c>
       <c r="I9">
-        <v>3.383077906433827</v>
+        <v>3.335810297396597</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>28.37986483318829</v>
+        <v>21.77246370972048</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>17.61066403746132</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>15.09793849529437</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>20.41861113898048</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>20.61817491197752</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.01522085464139</v>
+        <v>24.85049117193907</v>
       </c>
       <c r="C10">
-        <v>24.00702092789868</v>
+        <v>25.17308997749369</v>
       </c>
       <c r="D10">
-        <v>5.496725269373183</v>
+        <v>4.305270956311498</v>
       </c>
       <c r="E10">
-        <v>15.1437240579972</v>
+        <v>14.64122089319937</v>
       </c>
       <c r="F10">
-        <v>47.24771117389563</v>
+        <v>37.49238557948112</v>
       </c>
       <c r="G10">
-        <v>2.054295242591027</v>
+        <v>4.976131099211792</v>
       </c>
       <c r="H10">
-        <v>2.984622176868029</v>
+        <v>2.853369831509956</v>
       </c>
       <c r="I10">
-        <v>3.865809875849389</v>
+        <v>3.663091533627198</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>29.70085808823849</v>
+        <v>21.8140285458072</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>17.2852798361451</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>15.58475465372485</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>21.87827626615758</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>22.03515164749836</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.44226769769809</v>
+        <v>26.27215023935763</v>
       </c>
       <c r="C11">
-        <v>24.62802943102141</v>
+        <v>25.07055459450748</v>
       </c>
       <c r="D11">
-        <v>4.835253160112253</v>
+        <v>4.175658807700939</v>
       </c>
       <c r="E11">
-        <v>11.62034851560255</v>
+        <v>11.03402365988743</v>
       </c>
       <c r="F11">
-        <v>44.0323188904524</v>
+        <v>33.19916958827017</v>
       </c>
       <c r="G11">
-        <v>2.051080704187229</v>
+        <v>8.417525530514711</v>
       </c>
       <c r="H11">
-        <v>3.594095931294081</v>
+        <v>3.460122351878461</v>
       </c>
       <c r="I11">
-        <v>3.987156664688047</v>
+        <v>3.731650214649073</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>26.85009726452825</v>
+        <v>18.52812508307942</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>14.81686401230792</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>13.17130699538638</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>20.18587588090588</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>20.23914619555565</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.2288319237439</v>
+        <v>27.07091690829758</v>
       </c>
       <c r="C12">
-        <v>24.70483288687901</v>
+        <v>24.73577341904612</v>
       </c>
       <c r="D12">
-        <v>4.412894093026493</v>
+        <v>4.326607880105246</v>
       </c>
       <c r="E12">
-        <v>9.453627490099127</v>
+        <v>8.80964423452105</v>
       </c>
       <c r="F12">
-        <v>40.84646107021405</v>
+        <v>29.94431628287164</v>
       </c>
       <c r="G12">
-        <v>2.050721740795478</v>
+        <v>10.16672037944627</v>
       </c>
       <c r="H12">
-        <v>4.630182820066506</v>
+        <v>4.527507505595256</v>
       </c>
       <c r="I12">
-        <v>4.000165002493721</v>
+        <v>3.737269509609854</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>24.29637022114748</v>
+        <v>16.24834320352821</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>13.21174076465558</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>11.38325231175912</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>18.43362529115763</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>18.43272406539483</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.59327299617155</v>
+        <v>27.45949660574178</v>
       </c>
       <c r="C13">
-        <v>24.40213740440369</v>
+        <v>24.32591976110232</v>
       </c>
       <c r="D13">
-        <v>4.156298312500936</v>
+        <v>4.523969957643181</v>
       </c>
       <c r="E13">
-        <v>8.81145498758821</v>
+        <v>8.244017162407046</v>
       </c>
       <c r="F13">
-        <v>37.24102642900695</v>
+        <v>27.44000351301943</v>
       </c>
       <c r="G13">
-        <v>2.052614075640918</v>
+        <v>9.713797597313851</v>
       </c>
       <c r="H13">
-        <v>5.80960461680537</v>
+        <v>5.740804928022644</v>
       </c>
       <c r="I13">
-        <v>3.931042085549772</v>
+        <v>3.699498267802706</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>21.6422850042689</v>
+        <v>14.67090967130531</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>12.17867709106492</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>10.04050470431492</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>16.48131579968704</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>16.47182884986794</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.66409632614756</v>
+        <v>27.55145043596384</v>
       </c>
       <c r="C14">
-        <v>24.02264711024172</v>
+        <v>24.00017627211703</v>
       </c>
       <c r="D14">
-        <v>4.086983558750347</v>
+        <v>4.64706846947095</v>
       </c>
       <c r="E14">
-        <v>9.465918230165546</v>
+        <v>9.046308288408682</v>
       </c>
       <c r="F14">
-        <v>34.45392126662774</v>
+        <v>25.95354355682158</v>
       </c>
       <c r="G14">
-        <v>2.0549255414692</v>
+        <v>8.415587741798317</v>
       </c>
       <c r="H14">
-        <v>6.688014625451413</v>
+        <v>6.639581316367664</v>
       </c>
       <c r="I14">
-        <v>3.847473768413188</v>
+        <v>3.653930004818676</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>19.7098484885842</v>
+        <v>13.83652674064074</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>11.667228187049</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>9.269658571934029</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>14.99938518856048</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>15.00184476745397</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.58976880225631</v>
+        <v>27.48497322548889</v>
       </c>
       <c r="C15">
-        <v>23.85523468074753</v>
+        <v>23.90141923826627</v>
       </c>
       <c r="D15">
-        <v>4.087724592767104</v>
+        <v>4.655856222805033</v>
       </c>
       <c r="E15">
-        <v>9.729347863908517</v>
+        <v>9.366400144405791</v>
       </c>
       <c r="F15">
-        <v>33.6389771119276</v>
+        <v>25.68737594374109</v>
       </c>
       <c r="G15">
-        <v>2.056027711025513</v>
+        <v>7.682027747511097</v>
       </c>
       <c r="H15">
-        <v>6.887288171284231</v>
+        <v>6.844957328889638</v>
       </c>
       <c r="I15">
-        <v>3.808658664192219</v>
+        <v>3.633013706972899</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>19.18643463915831</v>
+        <v>13.72312519069569</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>11.61044964019031</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>9.139318062986488</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>14.59297124708887</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>14.60610434253257</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.68279208090246</v>
+        <v>26.605512975432</v>
       </c>
       <c r="C16">
-        <v>23.06633322572683</v>
+        <v>23.5929580179432</v>
       </c>
       <c r="D16">
-        <v>4.115110928959358</v>
+        <v>4.436310476168026</v>
       </c>
       <c r="E16">
-        <v>9.36339226576764</v>
+        <v>9.175883254356453</v>
       </c>
       <c r="F16">
-        <v>32.83298272306563</v>
+        <v>26.73926000796634</v>
       </c>
       <c r="G16">
-        <v>2.061274009592608</v>
+        <v>4.377917562168545</v>
       </c>
       <c r="H16">
-        <v>6.595896303522555</v>
+        <v>6.571949284356727</v>
       </c>
       <c r="I16">
-        <v>3.619018715822868</v>
+        <v>3.521047740894356</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>19.00016125551728</v>
+        <v>14.64736242369354</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>12.30930320862026</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>9.75622970536643</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>14.24037813933097</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>14.32182964324289</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.92893516046475</v>
+        <v>25.86333472799436</v>
       </c>
       <c r="C17">
-        <v>22.66096089158775</v>
+        <v>23.46556111604476</v>
       </c>
       <c r="D17">
-        <v>4.152827591448169</v>
+        <v>4.272229904730775</v>
       </c>
       <c r="E17">
-        <v>8.517181215301555</v>
+        <v>8.380518265409878</v>
       </c>
       <c r="F17">
-        <v>33.75911864663122</v>
+        <v>28.16323146245961</v>
       </c>
       <c r="G17">
-        <v>2.064107731983217</v>
+        <v>3.182979132924762</v>
       </c>
       <c r="H17">
-        <v>5.850914600176407</v>
+        <v>5.834020622375454</v>
       </c>
       <c r="I17">
-        <v>3.516898378231875</v>
+        <v>3.457119210624084</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>19.89879435223045</v>
+        <v>15.72195104426474</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>13.09765038587036</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>10.55051019708914</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>14.79337975397457</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>14.91370971583476</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.23760226843181</v>
+        <v>25.169392546419</v>
       </c>
       <c r="C18">
-        <v>22.53384493688356</v>
+        <v>23.56678335700681</v>
       </c>
       <c r="D18">
-        <v>4.301565187580191</v>
+        <v>4.152305138181737</v>
       </c>
       <c r="E18">
-        <v>8.184775874188913</v>
+        <v>7.996121218548526</v>
       </c>
       <c r="F18">
-        <v>36.37492075677331</v>
+        <v>30.45280540177043</v>
       </c>
       <c r="G18">
-        <v>2.064978588554286</v>
+        <v>2.836966337934481</v>
       </c>
       <c r="H18">
-        <v>4.683009935528572</v>
+        <v>4.664769007901083</v>
       </c>
       <c r="I18">
-        <v>3.482466513379145</v>
+        <v>3.431706678305463</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>21.92893251751189</v>
+        <v>17.31512839768595</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>14.24010603671545</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>11.79586438878076</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>16.19222422452063</v>
+        <v>0</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>16.34459085430032</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.6612068311419</v>
+        <v>24.57758005341802</v>
       </c>
       <c r="C19">
-        <v>22.68795407033991</v>
+        <v>23.92100215706871</v>
       </c>
       <c r="D19">
-        <v>4.641533326604613</v>
+        <v>4.14706677450805</v>
       </c>
       <c r="E19">
-        <v>9.847305398288723</v>
+        <v>9.559197329947867</v>
       </c>
       <c r="F19">
-        <v>39.93411014264961</v>
+        <v>33.22395205806966</v>
       </c>
       <c r="G19">
-        <v>2.064030687068273</v>
+        <v>2.87403483868047</v>
       </c>
       <c r="H19">
-        <v>3.458972830762854</v>
+        <v>3.426875777407602</v>
       </c>
       <c r="I19">
-        <v>3.518321344908482</v>
+        <v>3.454247077419936</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>24.59078651072663</v>
+        <v>19.20025674761163</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>15.58496786350672</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>13.29188735131528</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>18.15245688719236</v>
+        <v>0</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>18.33208892772849</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.4677764393449</v>
+        <v>24.32853071718583</v>
       </c>
       <c r="C20">
-        <v>23.54203585103502</v>
+        <v>24.90943727149796</v>
       </c>
       <c r="D20">
-        <v>5.429491762331856</v>
+        <v>4.333911376347407</v>
       </c>
       <c r="E20">
-        <v>14.8965416527315</v>
+        <v>14.453647420116</v>
       </c>
       <c r="F20">
-        <v>46.16973199196008</v>
+        <v>37.44437747448214</v>
       </c>
       <c r="G20">
-        <v>2.057906203807565</v>
+        <v>3.764029933133446</v>
       </c>
       <c r="H20">
-        <v>2.854841709987698</v>
+        <v>2.756924075026472</v>
       </c>
       <c r="I20">
-        <v>3.741554111225984</v>
+        <v>3.595099728458687</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>29.08081971257299</v>
+        <v>21.94189440864299</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>17.46974346732451</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>15.56578793198065</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>21.49982829899279</v>
+        <v>0</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>21.69030112945033</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.94193223262579</v>
+        <v>25.72724717496068</v>
       </c>
       <c r="C21">
-        <v>25.10375579700596</v>
+        <v>25.54225096595673</v>
       </c>
       <c r="D21">
-        <v>5.603342536697403</v>
+        <v>4.202110437652832</v>
       </c>
       <c r="E21">
-        <v>16.25948092208801</v>
+        <v>15.67009988229937</v>
       </c>
       <c r="F21">
-        <v>49.16693662614032</v>
+        <v>36.27099912277169</v>
       </c>
       <c r="G21">
-        <v>2.047335670947781</v>
+        <v>10.05764064804404</v>
       </c>
       <c r="H21">
-        <v>3.259971507449177</v>
+        <v>3.050313054312018</v>
       </c>
       <c r="I21">
-        <v>4.125999456552069</v>
+        <v>3.8046759665378</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>30.7208480570472</v>
+        <v>20.63062116204287</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>16.27225881591658</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>14.87776881882767</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>22.98931401510643</v>
+        <v>0</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>23.02757333120718</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.89938773845936</v>
+        <v>26.63716859985556</v>
       </c>
       <c r="C22">
-        <v>26.05049261405822</v>
+        <v>25.84395311201916</v>
       </c>
       <c r="D22">
-        <v>5.692566742727928</v>
+        <v>4.178943309551046</v>
       </c>
       <c r="E22">
-        <v>16.88001581089917</v>
+        <v>16.20677398184739</v>
       </c>
       <c r="F22">
-        <v>50.93201650583357</v>
+        <v>35.25271672556811</v>
       </c>
       <c r="G22">
-        <v>2.040587787005377</v>
+        <v>15.01286556281197</v>
       </c>
       <c r="H22">
-        <v>3.50847130764758</v>
+        <v>3.227384666780959</v>
       </c>
       <c r="I22">
-        <v>4.369366880698147</v>
+        <v>3.934684758436086</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>31.67255189435651</v>
+        <v>19.61681451847882</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>15.40060510952047</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>14.29703031945427</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>23.78966237096321</v>
+        <v>0</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>23.72057162437814</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.39433798134558</v>
+        <v>26.15627539555745</v>
       </c>
       <c r="C23">
-        <v>25.52510873577186</v>
+        <v>25.77400197007371</v>
       </c>
       <c r="D23">
-        <v>5.664785489189659</v>
+        <v>4.193818433174044</v>
       </c>
       <c r="E23">
-        <v>16.55666585233126</v>
+        <v>15.91973450441856</v>
       </c>
       <c r="F23">
-        <v>50.10601323933179</v>
+        <v>36.25446742855007</v>
       </c>
       <c r="G23">
-        <v>2.044126979392874</v>
+        <v>11.60526329151893</v>
       </c>
       <c r="H23">
-        <v>3.3774362704759</v>
+        <v>3.137540863764591</v>
       </c>
       <c r="I23">
-        <v>4.239040067094414</v>
+        <v>3.867847957623873</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>31.26163366252841</v>
+        <v>20.47147412947303</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>16.0830671655479</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>14.8574963927105</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>23.36225516465446</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>23.36732239309573</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.39906202695022</v>
+        <v>24.25698544063044</v>
       </c>
       <c r="C24">
-        <v>23.50740767324957</v>
+        <v>24.90652502713771</v>
       </c>
       <c r="D24">
-        <v>5.523599629830882</v>
+        <v>4.370456365385382</v>
       </c>
       <c r="E24">
-        <v>15.2872620421289</v>
+        <v>14.83902873390002</v>
       </c>
       <c r="F24">
-        <v>46.70650603514569</v>
+        <v>37.88751254512642</v>
       </c>
       <c r="G24">
-        <v>2.057727743642781</v>
+        <v>3.751065167315025</v>
       </c>
       <c r="H24">
-        <v>2.873598568770614</v>
+        <v>2.773949011799939</v>
       </c>
       <c r="I24">
-        <v>3.742933213934987</v>
+        <v>3.591892201618889</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>29.51466401399888</v>
+        <v>22.27741834355516</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>17.71588552604759</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>15.82369561341113</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>21.68877876776471</v>
+        <v>0</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>21.88343603563976</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.07455587343988</v>
+        <v>22.03159384772685</v>
       </c>
       <c r="C25">
-        <v>21.18729517836352</v>
+        <v>22.58100375683771</v>
       </c>
       <c r="D25">
-        <v>5.362929926090808</v>
+        <v>4.334945515569723</v>
       </c>
       <c r="E25">
-        <v>13.83944268805066</v>
+        <v>13.64825815048492</v>
       </c>
       <c r="F25">
-        <v>42.84215473015264</v>
+        <v>35.39000821509282</v>
       </c>
       <c r="G25">
-        <v>2.072694509022833</v>
+        <v>1.969604935081316</v>
       </c>
       <c r="H25">
-        <v>2.316213785523092</v>
+        <v>2.317780586535998</v>
       </c>
       <c r="I25">
-        <v>3.19967268169483</v>
+        <v>3.213014975806945</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>27.55180111926843</v>
+        <v>21.44925740827447</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>17.5081992279287</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>14.67946909296632</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>19.7550406261719</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>19.96236827800409</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
